--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\TugasPraktikum_120-255\PRAKTIKUM_ML_120-255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCEC9A4-44DC-4A12-A5CC-ECEA36F384B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171211A-009F-45E9-8B97-0FC9F830267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{775F54FE-02DB-4E5D-AF7E-C5C444D100D1}"/>
   </bookViews>
@@ -158,15 +158,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,156 +497,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>44492</v>
       </c>
-      <c r="C3" s="5">
-        <v>44496</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4">
+        <v>44497</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>44492</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44496</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>44497</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44500</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\TugasPraktikum_120-255\PRAKTIKUM_ML_120-255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171211A-009F-45E9-8B97-0FC9F830267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8749E3-6D34-47E7-B98F-D81E797EFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{775F54FE-02DB-4E5D-AF7E-C5C444D100D1}"/>
   </bookViews>
@@ -527,10 +527,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="C3" s="4">
-        <v>44497</v>
+        <v>44500</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -544,10 +544,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>44497</v>
+        <v>44500</v>
       </c>
       <c r="C4" s="4">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\TugasPraktikum_120-255\PRAKTIKUM_ML_120-255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8749E3-6D34-47E7-B98F-D81E797EFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30763341-DD9E-47DD-B0AC-5B90251ECC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{775F54FE-02DB-4E5D-AF7E-C5C444D100D1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -73,26 +73,35 @@
     <t>Anisa</t>
   </si>
   <si>
-    <t>Modelling CNN</t>
-  </si>
-  <si>
     <t>Augmentasi Data</t>
   </si>
   <si>
     <t>Pretrained Model</t>
   </si>
   <si>
-    <t>On Going</t>
-  </si>
-  <si>
     <t>Waiting</t>
+  </si>
+  <si>
+    <t>Modelling CNN 1</t>
+  </si>
+  <si>
+    <t>Modelling CNN 2</t>
+  </si>
+  <si>
+    <t>Modelling CNN 3</t>
+  </si>
+  <si>
+    <t>Modelling CNN 4</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +113,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4783A3D5-3558-40CA-91C1-AEF5C54957D0}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,77 +542,89 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>44493</v>
+        <v>44498</v>
       </c>
       <c r="C3" s="4">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="C4" s="4">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44507</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44510</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44507</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44510</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44507</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44510</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -605,12 +632,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -618,40 +645,80 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\TugasPraktikum_120-255\PRAKTIKUM_ML_120-255\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 7\MachineLearning\Praktikum\PRAKTIKUM_ML_120-255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30763341-DD9E-47DD-B0AC-5B90251ECC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0DD4C4-1BB4-49A4-B1DE-3A49823B4255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{775F54FE-02DB-4E5D-AF7E-C5C444D100D1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -55,18 +55,6 @@
     <t>Preprocessing Data</t>
   </si>
   <si>
-    <t>Frontend Web</t>
-  </si>
-  <si>
-    <t>Backend Web</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Dhimas</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>Pretrained Model</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Modelling CNN 1</t>
   </si>
   <si>
@@ -95,13 +80,28 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Testing Model VGG19</t>
+  </si>
+  <si>
+    <t>Deployment Heroku</t>
+  </si>
+  <si>
+    <t>Modelling with hparam</t>
+  </si>
+  <si>
+    <t>Modelling with LR Scheduller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurasi Flask Model </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,23 +175,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1A3F5594-63A9-450E-931B-A9FD65DD0F43}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4783A3D5-3558-40CA-91C1-AEF5C54957D0}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
@@ -512,13 +523,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -541,95 +552,99 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44498</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>44505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>44507</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44510</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
         <v>44507</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>44510</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
         <v>44507</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>44510</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>44507</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>44510</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44514</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44520</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -637,82 +652,97 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44515</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44521</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44529</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44534</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44529</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44534</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44546</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44550</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44559</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44563</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -720,5 +750,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>